--- a/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-09_PH_120/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-09_PH_120/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.104439974</t>
+          <t>0.06565217</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.16192691</t>
+          <t>0.12641451</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,28 +515,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.091776244</t>
+          <t>0.07652219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.16405147</t>
+          <t>0.13153398</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.17634082</t>
+          <t>0.1771727</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.32958016</t>
+          <t>0.3283748</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.14331034</t>
+          <t>0.1434832</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.28384838</t>
+          <t>0.2826047</t>
         </is>
       </c>
       <c r="D5" t="n">
